--- a/Replication Package/documentation/rider-audits/baseline-study/codebooks/mapping.xlsx
+++ b/Replication Package/documentation/rider-audits/baseline-study/codebooks/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\baseline-study\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23C0625-A69A-4574-B0D9-36CD9BD226C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE94F73-7E61-458D-A1CC-8C35F2759B63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="choices_current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -702,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,23 +999,8 @@
       <c r="B32" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
       <c r="E32" t="s">
         <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="5:5">
